--- a/総合テスト/7. その他（非機能）/ST-NF-006_結果.xlsx
+++ b/総合テスト/7. その他（非機能）/ST-NF-006_結果.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avantg-my.sharepoint.com/personal/taisei_bamba_avantcorp_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shogo.murata\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{9BECB402-E5B5-438B-A30C-4EB962FB5082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9E4799B-16F9-4A6C-A34A-2F09373766A4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C58B1E23-23E7-44FA-9E46-0355876998EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{45DE406B-8DB5-4961-AF3A-01998886B8EC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{961F04B7-C255-42B3-9F4F-4F3B18C8F994}"/>
   </bookViews>
   <sheets>
-    <sheet name="6-1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,23 +101,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>4713</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>450226</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>191930</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9280727F-66E0-63C8-EDE6-B8B4F4FFBF16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D8E30CB-4F23-E46C-DAB4-49755190C2BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -126,21 +126,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7772400" cy="5033913"/>
+          <a:off x="660400" y="228600"/>
+          <a:ext cx="18281026" cy="10250330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -468,10 +462,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE33EB88-F9D1-467F-82C1-4288AE748878}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8FECD5-149A-4DB7-B110-BEC2608D516B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>

--- a/総合テスト/7. その他（非機能）/ST-NF-006_結果.xlsx
+++ b/総合テスト/7. その他（非機能）/ST-NF-006_結果.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shogo.murata\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C58B1E23-23E7-44FA-9E46-0355876998EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE96AA7-B252-49DD-8B12-55E0117E18A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{961F04B7-C255-42B3-9F4F-4F3B18C8F994}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="6-1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
